--- a/LoopGame/LoopGame/Content/csv/TestStage01.xlsx
+++ b/LoopGame/LoopGame/Content/csv/TestStage01.xlsx
@@ -387,7 +387,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -397,7 +397,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -409,13 +409,13 @@
         <v>1</v>
       </c>
       <c r="E1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1">
         <v>1</v>
@@ -430,7 +430,7 @@
         <v>1</v>
       </c>
       <c r="L1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M1">
         <v>1</v>
@@ -447,7 +447,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -459,13 +459,13 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -477,10 +477,10 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -497,7 +497,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -512,7 +512,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N3">
         <v>5</v>
@@ -562,7 +562,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -577,10 +577,10 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -612,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -647,43 +647,43 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>5</v>
@@ -697,10 +697,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -712,10 +712,10 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -724,16 +724,16 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <v>5</v>
@@ -747,10 +747,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -762,10 +762,10 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -774,16 +774,16 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N8">
         <v>5</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -812,10 +812,10 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -830,7 +830,7 @@
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <v>1</v>
